--- a/Code/Results/Cases/Case_5_122/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_122/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.515566945940407</v>
+        <v>1.287629211722333</v>
       </c>
       <c r="C2">
-        <v>1.015199242255846</v>
+        <v>0.3402632080236003</v>
       </c>
       <c r="D2">
-        <v>0.2341039917401133</v>
+        <v>0.235289304122503</v>
       </c>
       <c r="E2">
-        <v>0.1808996051612866</v>
+        <v>0.1776475392211836</v>
       </c>
       <c r="F2">
-        <v>0.6273263858174474</v>
+        <v>1.091381633918594</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1245038319314205</v>
+        <v>0.4404514370260948</v>
       </c>
       <c r="J2">
-        <v>0.1862036379674024</v>
+        <v>0.1793734731068</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.205642898248357</v>
+        <v>2.400617408154631</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.059033791418642</v>
+        <v>1.142681825063619</v>
       </c>
       <c r="C3">
-        <v>0.8847113746691946</v>
+        <v>0.2985870368923429</v>
       </c>
       <c r="D3">
-        <v>0.2080623294350232</v>
+        <v>0.2286407175799638</v>
       </c>
       <c r="E3">
-        <v>0.1610663970880353</v>
+        <v>0.1732199729131949</v>
       </c>
       <c r="F3">
-        <v>0.5906752210268706</v>
+        <v>1.09542747142136</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1374410420045322</v>
+        <v>0.4510568956887351</v>
       </c>
       <c r="J3">
-        <v>0.1659222720127715</v>
+        <v>0.1753624964209948</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.160795183812141</v>
+        <v>2.424267857758139</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.779006218230506</v>
+        <v>1.053468655672873</v>
       </c>
       <c r="C4">
-        <v>0.8046508987546588</v>
+        <v>0.2729121377406045</v>
       </c>
       <c r="D4">
-        <v>0.1921982017098145</v>
+        <v>0.2246253972989507</v>
       </c>
       <c r="E4">
-        <v>0.1490661809576501</v>
+        <v>0.1705833462974233</v>
       </c>
       <c r="F4">
-        <v>0.5700531039015644</v>
+        <v>1.098777232410193</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.146352990207955</v>
+        <v>0.4580034490540932</v>
       </c>
       <c r="J4">
-        <v>0.1537356131935752</v>
+        <v>0.1730093420532199</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.138216265668802</v>
+        <v>2.440971406002291</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.664924268499988</v>
+        <v>1.017061812461407</v>
       </c>
       <c r="C5">
-        <v>0.7720291465937237</v>
+        <v>0.2624285278010063</v>
       </c>
       <c r="D5">
-        <v>0.1857617391789148</v>
+        <v>0.223006075780205</v>
       </c>
       <c r="E5">
-        <v>0.14421664607368</v>
+        <v>0.1695295362741263</v>
       </c>
       <c r="F5">
-        <v>0.5620930119895462</v>
+        <v>1.100359546011816</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1502157521856535</v>
+        <v>0.4609432486398219</v>
       </c>
       <c r="J5">
-        <v>0.1488306424575399</v>
+        <v>0.1720779490768649</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.130185363833817</v>
+        <v>2.448325514310213</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.645981832633879</v>
+        <v>1.011013425886119</v>
       </c>
       <c r="C6">
-        <v>0.7666122249669343</v>
+        <v>0.2606864900856465</v>
       </c>
       <c r="D6">
-        <v>0.1846945868000773</v>
+        <v>0.222738216264375</v>
       </c>
       <c r="E6">
-        <v>0.1434137280102519</v>
+        <v>0.1693557994635775</v>
       </c>
       <c r="F6">
-        <v>0.5607972009875297</v>
+        <v>1.100635398054251</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.150870765202443</v>
+        <v>0.4614379759974234</v>
       </c>
       <c r="J6">
-        <v>0.14801971005231</v>
+        <v>0.1719249544422041</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.128920357776707</v>
+        <v>2.449579670792332</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.777467592483333</v>
+        <v>1.05297786675203</v>
       </c>
       <c r="C7">
-        <v>0.8042109505741166</v>
+        <v>0.2727708358056873</v>
       </c>
       <c r="D7">
-        <v>0.1921112869259076</v>
+        <v>0.2246034897530933</v>
       </c>
       <c r="E7">
-        <v>0.1490006189214306</v>
+        <v>0.1705690506382957</v>
       </c>
       <c r="F7">
-        <v>0.5699439932140251</v>
+        <v>1.098797692910395</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.146404165150182</v>
+        <v>0.4580426551914947</v>
       </c>
       <c r="J7">
-        <v>0.1536692226276699</v>
+        <v>0.1729966694979836</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.13810331810727</v>
+        <v>2.441068372074341</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.358069751161338</v>
+        <v>1.237697270622903</v>
       </c>
       <c r="C8">
-        <v>0.9701874635798333</v>
+        <v>0.3259113889523633</v>
       </c>
       <c r="D8">
-        <v>0.2250967244097666</v>
+        <v>0.2329830487546332</v>
       </c>
       <c r="E8">
-        <v>0.1740218149283095</v>
+        <v>0.1761039334156393</v>
       </c>
       <c r="F8">
-        <v>0.6142801405212452</v>
+        <v>1.09259673831346</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1287558811187779</v>
+        <v>0.4440177853716083</v>
       </c>
       <c r="J8">
-        <v>0.179151810404889</v>
+        <v>0.1779677245160158</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.189103065496738</v>
+        <v>2.40831833560614</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.5009177395969</v>
+        <v>1.598144478682116</v>
       </c>
       <c r="C9">
-        <v>1.296715831610754</v>
+        <v>0.4294182518974594</v>
       </c>
       <c r="D9">
-        <v>0.2909388149612226</v>
+        <v>0.2499421218842457</v>
       </c>
       <c r="E9">
-        <v>0.2246900412027557</v>
+        <v>0.1876068884387436</v>
       </c>
       <c r="F9">
-        <v>0.7175800956564444</v>
+        <v>1.08732428579772</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1024266617653922</v>
+        <v>0.4199777512684548</v>
       </c>
       <c r="J9">
-        <v>0.2315139762144014</v>
+        <v>0.188587416441905</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.332125200969529</v>
+        <v>2.361474758672671</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.346314431843837</v>
+        <v>1.861792553738155</v>
       </c>
       <c r="C10">
-        <v>1.538149589266993</v>
+        <v>0.5050141610020091</v>
       </c>
       <c r="D10">
-        <v>0.3402649796262693</v>
+        <v>0.2627187381350211</v>
       </c>
       <c r="E10">
-        <v>0.2631850604987349</v>
+        <v>0.1964537076048174</v>
       </c>
       <c r="F10">
-        <v>0.8055737221892656</v>
+        <v>1.087678212699885</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.08901117667645764</v>
+        <v>0.4044438692803851</v>
       </c>
       <c r="J10">
-        <v>0.271861788690714</v>
+        <v>0.1969246061329102</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.468901467313202</v>
+        <v>2.337745632850044</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.7329254998333</v>
+        <v>1.981462728161262</v>
       </c>
       <c r="C11">
-        <v>1.64853767873052</v>
+        <v>0.5393025812848578</v>
       </c>
       <c r="D11">
-        <v>0.3629713806767114</v>
+        <v>0.2685991201601752</v>
       </c>
       <c r="E11">
-        <v>0.2810440709707507</v>
+        <v>0.2005643137564022</v>
       </c>
       <c r="F11">
-        <v>0.8487459388664291</v>
+        <v>1.08876349448434</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.08440789484932054</v>
+        <v>0.3978429548354985</v>
       </c>
       <c r="J11">
-        <v>0.2907266772820947</v>
+        <v>0.2008344094957266</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.539331923624161</v>
+        <v>2.329291069413131</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.879686718688617</v>
+        <v>2.026738800614794</v>
       </c>
       <c r="C12">
-        <v>1.690438912865034</v>
+        <v>0.5522717415465195</v>
       </c>
       <c r="D12">
-        <v>0.3716135615367619</v>
+        <v>0.270835580772669</v>
       </c>
       <c r="E12">
-        <v>0.2878631846271205</v>
+        <v>0.2021332615412703</v>
       </c>
       <c r="F12">
-        <v>0.8655929518782699</v>
+        <v>1.08930784876388</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.0828997773033251</v>
+        <v>0.3954106240007942</v>
       </c>
       <c r="J12">
-        <v>0.2979529728613528</v>
+        <v>0.2023318455441654</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.567303481773621</v>
+        <v>2.326427615556128</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.848061917507152</v>
+        <v>2.01698962365856</v>
       </c>
       <c r="C13">
-        <v>1.681409972945403</v>
+        <v>0.5494792837983482</v>
       </c>
       <c r="D13">
-        <v>0.3697502783228686</v>
+        <v>0.270353490081348</v>
       </c>
       <c r="E13">
-        <v>0.286391956124497</v>
+        <v>0.2017948118587043</v>
       </c>
       <c r="F13">
-        <v>0.861941685234612</v>
+        <v>1.089184672650958</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.0832137973363487</v>
+        <v>0.3959314715530464</v>
       </c>
       <c r="J13">
-        <v>0.2963928339139272</v>
+        <v>0.2020085947674062</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.561219413504631</v>
+        <v>2.327029248373123</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.744992011957436</v>
+        <v>1.985188441541936</v>
       </c>
       <c r="C14">
-        <v>1.65198280403456</v>
+        <v>0.5403698687111955</v>
       </c>
       <c r="D14">
-        <v>0.3636814693098387</v>
+        <v>0.2687829216778255</v>
       </c>
       <c r="E14">
-        <v>0.2816039171268514</v>
+        <v>0.2006931447238145</v>
       </c>
       <c r="F14">
-        <v>0.8501216785210204</v>
+        <v>1.088805602975881</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.08427899352574286</v>
+        <v>0.3976414948729019</v>
       </c>
       <c r="J14">
-        <v>0.2913194787672211</v>
+        <v>0.2009572660270891</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.541606358906051</v>
+        <v>2.329048705895275</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.681907699966132</v>
+        <v>1.96570396486868</v>
       </c>
       <c r="C15">
-        <v>1.633971396239758</v>
+        <v>0.5347881002750796</v>
       </c>
       <c r="D15">
-        <v>0.3599700113511091</v>
+        <v>0.2678221611054568</v>
       </c>
       <c r="E15">
-        <v>0.2786786333292497</v>
+        <v>0.2000199490965286</v>
       </c>
       <c r="F15">
-        <v>0.8429479695239905</v>
+        <v>1.088590796051164</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.08496267031303972</v>
+        <v>0.3986977073523406</v>
       </c>
       <c r="J15">
-        <v>0.2882229411029016</v>
+        <v>0.2003154957382947</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.529765982640555</v>
+        <v>2.330329761496529</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.321095068359455</v>
+        <v>1.853966297756358</v>
       </c>
       <c r="C16">
-        <v>1.530948321457231</v>
+        <v>0.5027712521620629</v>
       </c>
       <c r="D16">
-        <v>0.3387868895100752</v>
+        <v>0.2623358037374146</v>
       </c>
       <c r="E16">
-        <v>0.2620254526786354</v>
+        <v>0.1961868000946083</v>
       </c>
       <c r="F16">
-        <v>0.8028194672521494</v>
+        <v>1.087625926162858</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.08934381003861702</v>
+        <v>0.4048846520719387</v>
       </c>
       <c r="J16">
-        <v>0.27063996163713</v>
+        <v>0.1966714515952503</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.464473951641679</v>
+        <v>2.338345383004167</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.100315620592198</v>
+        <v>1.785349379317609</v>
       </c>
       <c r="C17">
-        <v>1.467903287307649</v>
+        <v>0.4831037285040907</v>
       </c>
       <c r="D17">
-        <v>0.3258638992995913</v>
+        <v>0.2589874889381605</v>
       </c>
       <c r="E17">
-        <v>0.2519025919507598</v>
+        <v>0.1938573244432575</v>
       </c>
       <c r="F17">
-        <v>0.7790390106118679</v>
+        <v>1.08727107552923</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.09242888319731968</v>
+        <v>0.4087996238564724</v>
       </c>
       <c r="J17">
-        <v>0.2599903956612195</v>
+        <v>0.1944659801295643</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.426604839331532</v>
+        <v>2.3438631787308</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.973516376354667</v>
+        <v>1.745857971652526</v>
       </c>
       <c r="C18">
-        <v>1.431692776005264</v>
+        <v>0.4717820651450779</v>
       </c>
       <c r="D18">
-        <v>0.318455791681771</v>
+        <v>0.2570680568401826</v>
       </c>
       <c r="E18">
-        <v>0.2461124825512755</v>
+        <v>0.1925255821061143</v>
       </c>
       <c r="F18">
-        <v>0.7656539900669515</v>
+        <v>1.08715394419643</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.09434322284217345</v>
+        <v>0.4110952086980362</v>
       </c>
       <c r="J18">
-        <v>0.2539125011248586</v>
+        <v>0.1932084785111954</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.405588534802291</v>
+        <v>2.347257017635542</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.930614539959265</v>
+        <v>1.732482677738119</v>
       </c>
       <c r="C19">
-        <v>1.419440773924805</v>
+        <v>0.4679471462199558</v>
       </c>
       <c r="D19">
-        <v>0.3159516492101062</v>
+        <v>0.2564192782829195</v>
       </c>
       <c r="E19">
-        <v>0.2441574128752109</v>
+        <v>0.1920760711396881</v>
       </c>
       <c r="F19">
-        <v>0.7611709948399294</v>
+        <v>1.087129208231175</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.09501484465469368</v>
+        <v>0.4118799657276639</v>
       </c>
       <c r="J19">
-        <v>0.2518625140378674</v>
+        <v>0.192784603129013</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.398600657155356</v>
+        <v>2.348443874343275</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.123798121468099</v>
+        <v>1.79265634837509</v>
       </c>
       <c r="C20">
-        <v>1.474609092528169</v>
+        <v>0.4851983501435484</v>
       </c>
       <c r="D20">
-        <v>0.3272369645748938</v>
+        <v>0.2593432581891761</v>
       </c>
       <c r="E20">
-        <v>0.2529768014392531</v>
+        <v>0.1941044619716052</v>
       </c>
       <c r="F20">
-        <v>0.7815398446449677</v>
+        <v>1.087299845560025</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.09208585841010475</v>
+        <v>0.4083783331028048</v>
       </c>
       <c r="J20">
-        <v>0.2611190848932807</v>
+        <v>0.1946996148461864</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.430556054924637</v>
+        <v>2.343253003588728</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.775255805377697</v>
+        <v>1.99453033546996</v>
       </c>
       <c r="C21">
-        <v>1.660623409161303</v>
+        <v>0.5430459403461896</v>
       </c>
       <c r="D21">
-        <v>0.3654627937820578</v>
+        <v>0.2692439737597141</v>
       </c>
       <c r="E21">
-        <v>0.2830086992676257</v>
+        <v>0.201016396171255</v>
       </c>
       <c r="F21">
-        <v>0.8535795773862134</v>
+        <v>1.08891332123757</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.08395957781759478</v>
+        <v>0.3971373904914532</v>
       </c>
       <c r="J21">
-        <v>0.292807328173069</v>
+        <v>0.2012656084578737</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.547330867208217</v>
+        <v>2.328446353231413</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.203155067049465</v>
+        <v>2.126229946432659</v>
       </c>
       <c r="C22">
-        <v>1.782785706292373</v>
+        <v>0.580764249202673</v>
       </c>
       <c r="D22">
-        <v>0.3907034240615985</v>
+        <v>0.2757710730730878</v>
       </c>
       <c r="E22">
-        <v>0.3029677447398527</v>
+        <v>0.2056057156967128</v>
       </c>
       <c r="F22">
-        <v>0.9035926394905971</v>
+        <v>1.090745489015333</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.08002879903684601</v>
+        <v>0.3901831775703677</v>
       </c>
       <c r="J22">
-        <v>0.3140035591322601</v>
+        <v>0.205655258396277</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.631297025389642</v>
+        <v>2.320740843004842</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.974558090337212</v>
+        <v>2.055961819632387</v>
       </c>
       <c r="C23">
-        <v>1.717524433019094</v>
+        <v>0.5606415869202124</v>
       </c>
       <c r="D23">
-        <v>0.3772065719134048</v>
+        <v>0.2722823167964208</v>
       </c>
       <c r="E23">
-        <v>0.292282660558449</v>
+        <v>0.2031497362579699</v>
       </c>
       <c r="F23">
-        <v>0.8766151042180894</v>
+        <v>1.089696314427471</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.08199359865705702</v>
+        <v>0.3938587522606678</v>
       </c>
       <c r="J23">
-        <v>0.3026430102947586</v>
+        <v>0.2033034070149426</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.585740492892398</v>
+        <v>2.324672490841067</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.113181283529457</v>
+        <v>1.789353000266146</v>
       </c>
       <c r="C24">
-        <v>1.471577290662992</v>
+        <v>0.4842514169519632</v>
       </c>
       <c r="D24">
-        <v>0.3266161352152324</v>
+        <v>0.2591823975887166</v>
       </c>
       <c r="E24">
-        <v>0.25249105942342</v>
+        <v>0.1939927077186709</v>
       </c>
       <c r="F24">
-        <v>0.7804083281083507</v>
+        <v>1.087286568044988</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.09224050314781884</v>
+        <v>0.4085686590790054</v>
       </c>
       <c r="J24">
-        <v>0.2606086659979496</v>
+        <v>0.1945939560335148</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.428767367207541</v>
+        <v>2.343528173659621</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.190980405628409</v>
+        <v>1.500833966780817</v>
       </c>
       <c r="C25">
-        <v>1.208181292223117</v>
+        <v>0.4014944072816888</v>
       </c>
       <c r="D25">
-        <v>0.2729785665105169</v>
+        <v>0.2452983013398011</v>
       </c>
       <c r="E25">
-        <v>0.2107825973429485</v>
+        <v>0.1844255579438823</v>
       </c>
       <c r="F25">
-        <v>0.6876734536374727</v>
+        <v>1.088010284904719</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1085759480059671</v>
+        <v>0.4261087158098515</v>
       </c>
       <c r="J25">
-        <v>0.2170512605952695</v>
+        <v>0.1856208368358523</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.288288356949437</v>
+        <v>2.372277102683881</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_122/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_122/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.287629211722333</v>
+        <v>3.515566945940463</v>
       </c>
       <c r="C2">
-        <v>0.3402632080236003</v>
+        <v>1.015199242255818</v>
       </c>
       <c r="D2">
-        <v>0.235289304122503</v>
+        <v>0.234103991740227</v>
       </c>
       <c r="E2">
-        <v>0.1776475392211836</v>
+        <v>0.1808996051613008</v>
       </c>
       <c r="F2">
-        <v>1.091381633918594</v>
+        <v>0.6273263858174332</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4404514370260948</v>
+        <v>0.1245038319314187</v>
       </c>
       <c r="J2">
-        <v>0.1793734731068</v>
+        <v>0.1862036379674592</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.400617408154631</v>
+        <v>1.205642898248414</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.142681825063619</v>
+        <v>3.059033791418528</v>
       </c>
       <c r="C3">
-        <v>0.2985870368923429</v>
+        <v>0.8847113746690241</v>
       </c>
       <c r="D3">
-        <v>0.2286407175799638</v>
+        <v>0.2080623294348669</v>
       </c>
       <c r="E3">
-        <v>0.1732199729131949</v>
+        <v>0.161066397088014</v>
       </c>
       <c r="F3">
-        <v>1.09542747142136</v>
+        <v>0.5906752210268706</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4510568956887351</v>
+        <v>0.1374410420045304</v>
       </c>
       <c r="J3">
-        <v>0.1753624964209948</v>
+        <v>0.165922272012665</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.424267857758139</v>
+        <v>1.160795183812198</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.053468655672873</v>
+        <v>2.779006218230734</v>
       </c>
       <c r="C4">
-        <v>0.2729121377406045</v>
+        <v>0.8046508987542609</v>
       </c>
       <c r="D4">
-        <v>0.2246253972989507</v>
+        <v>0.1921982017098429</v>
       </c>
       <c r="E4">
-        <v>0.1705833462974233</v>
+        <v>0.1490661809576821</v>
       </c>
       <c r="F4">
-        <v>1.098777232410193</v>
+        <v>0.5700531039015715</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4580034490540932</v>
+        <v>0.1463529902079728</v>
       </c>
       <c r="J4">
-        <v>0.1730093420532199</v>
+        <v>0.1537356131935042</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.440971406002291</v>
+        <v>1.138216265668817</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.017061812461407</v>
+        <v>2.664924268500101</v>
       </c>
       <c r="C5">
-        <v>0.2624285278010063</v>
+        <v>0.7720291465937521</v>
       </c>
       <c r="D5">
-        <v>0.223006075780205</v>
+        <v>0.1857617391789148</v>
       </c>
       <c r="E5">
-        <v>0.1695295362741263</v>
+        <v>0.1442166460736516</v>
       </c>
       <c r="F5">
-        <v>1.100359546011816</v>
+        <v>0.5620930119895533</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4609432486398219</v>
+        <v>0.1502157521856482</v>
       </c>
       <c r="J5">
-        <v>0.1720779490768649</v>
+        <v>0.1488306424575043</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.448325514310213</v>
+        <v>1.13018536383386</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.011013425886119</v>
+        <v>2.64598183263405</v>
       </c>
       <c r="C6">
-        <v>0.2606864900856465</v>
+        <v>0.7666122249669343</v>
       </c>
       <c r="D6">
-        <v>0.222738216264375</v>
+        <v>0.18469458680012</v>
       </c>
       <c r="E6">
-        <v>0.1693557994635775</v>
+        <v>0.143413728010259</v>
       </c>
       <c r="F6">
-        <v>1.100635398054251</v>
+        <v>0.5607972009875226</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4614379759974234</v>
+        <v>0.1508707652024377</v>
       </c>
       <c r="J6">
-        <v>0.1719249544422041</v>
+        <v>0.1480197100522531</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.449579670792332</v>
+        <v>1.128920357776707</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05297786675203</v>
+        <v>2.777467592483333</v>
       </c>
       <c r="C7">
-        <v>0.2727708358056873</v>
+        <v>0.804210950574344</v>
       </c>
       <c r="D7">
-        <v>0.2246034897530933</v>
+        <v>0.1921112869258366</v>
       </c>
       <c r="E7">
-        <v>0.1705690506382957</v>
+        <v>0.1490006189214128</v>
       </c>
       <c r="F7">
-        <v>1.098797692910395</v>
+        <v>0.5699439932140109</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4580426551914947</v>
+        <v>0.1464041651501802</v>
       </c>
       <c r="J7">
-        <v>0.1729966694979836</v>
+        <v>0.1536692226277339</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.441068372074341</v>
+        <v>1.138103318107383</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.237697270622903</v>
+        <v>3.358069751161224</v>
       </c>
       <c r="C8">
-        <v>0.3259113889523633</v>
+        <v>0.9701874635800039</v>
       </c>
       <c r="D8">
-        <v>0.2329830487546332</v>
+        <v>0.225096724409596</v>
       </c>
       <c r="E8">
-        <v>0.1761039334156393</v>
+        <v>0.1740218149283166</v>
       </c>
       <c r="F8">
-        <v>1.09259673831346</v>
+        <v>0.6142801405212523</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4440177853716083</v>
+        <v>0.1287558811187814</v>
       </c>
       <c r="J8">
-        <v>0.1779677245160158</v>
+        <v>0.1791518104049814</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.40831833560614</v>
+        <v>1.189103065496738</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.598144478682116</v>
+        <v>4.500917739597071</v>
       </c>
       <c r="C9">
-        <v>0.4294182518974594</v>
+        <v>1.296715831610641</v>
       </c>
       <c r="D9">
-        <v>0.2499421218842457</v>
+        <v>0.2909388149613363</v>
       </c>
       <c r="E9">
-        <v>0.1876068884387436</v>
+        <v>0.2246900412027486</v>
       </c>
       <c r="F9">
-        <v>1.08732428579772</v>
+        <v>0.7175800956564444</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4199777512684548</v>
+        <v>0.1024266617654028</v>
       </c>
       <c r="J9">
-        <v>0.188587416441905</v>
+        <v>0.231513976214373</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.361474758672671</v>
+        <v>1.332125200969557</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.861792553738155</v>
+        <v>5.346314431843666</v>
       </c>
       <c r="C10">
-        <v>0.5050141610020091</v>
+        <v>1.538149589266766</v>
       </c>
       <c r="D10">
-        <v>0.2627187381350211</v>
+        <v>0.3402649796264399</v>
       </c>
       <c r="E10">
-        <v>0.1964537076048174</v>
+        <v>0.2631850604987136</v>
       </c>
       <c r="F10">
-        <v>1.087678212699885</v>
+        <v>0.8055737221892656</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4044438692803851</v>
+        <v>0.08901117667645941</v>
       </c>
       <c r="J10">
-        <v>0.1969246061329102</v>
+        <v>0.271861788690714</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.337745632850044</v>
+        <v>1.468901467313174</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.981462728161262</v>
+        <v>5.732925499833243</v>
       </c>
       <c r="C11">
-        <v>0.5393025812848578</v>
+        <v>1.648537678730293</v>
       </c>
       <c r="D11">
-        <v>0.2685991201601752</v>
+        <v>0.3629713806767683</v>
       </c>
       <c r="E11">
-        <v>0.2005643137564022</v>
+        <v>0.2810440709707223</v>
       </c>
       <c r="F11">
-        <v>1.08876349448434</v>
+        <v>0.8487459388664291</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3978429548354985</v>
+        <v>0.08440789484932054</v>
       </c>
       <c r="J11">
-        <v>0.2008344094957266</v>
+        <v>0.2907266772820662</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.329291069413131</v>
+        <v>1.539331923624218</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.026738800614794</v>
+        <v>5.879686718688561</v>
       </c>
       <c r="C12">
-        <v>0.5522717415465195</v>
+        <v>1.690438912864806</v>
       </c>
       <c r="D12">
-        <v>0.270835580772669</v>
+        <v>0.3716135615367477</v>
       </c>
       <c r="E12">
-        <v>0.2021332615412703</v>
+        <v>0.2878631846271205</v>
       </c>
       <c r="F12">
-        <v>1.08930784876388</v>
+        <v>0.8655929518782699</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3954106240007942</v>
+        <v>0.08289977730330733</v>
       </c>
       <c r="J12">
-        <v>0.2023318455441654</v>
+        <v>0.2979529728613812</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.326427615556128</v>
+        <v>1.567303481773649</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.01698962365856</v>
+        <v>5.848061917507266</v>
       </c>
       <c r="C13">
-        <v>0.5494792837983482</v>
+        <v>1.681409972945687</v>
       </c>
       <c r="D13">
-        <v>0.270353490081348</v>
+        <v>0.3697502783229254</v>
       </c>
       <c r="E13">
-        <v>0.2017948118587043</v>
+        <v>0.2863919561244685</v>
       </c>
       <c r="F13">
-        <v>1.089184672650958</v>
+        <v>0.8619416852346404</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3959314715530464</v>
+        <v>0.08321379733635048</v>
       </c>
       <c r="J13">
-        <v>0.2020085947674062</v>
+        <v>0.2963928339139983</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.327029248373123</v>
+        <v>1.561219413504574</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.985188441541936</v>
+        <v>5.74499201195772</v>
       </c>
       <c r="C14">
-        <v>0.5403698687111955</v>
+        <v>1.651982804034617</v>
       </c>
       <c r="D14">
-        <v>0.2687829216778255</v>
+        <v>0.363681469309924</v>
       </c>
       <c r="E14">
-        <v>0.2006931447238145</v>
+        <v>0.2816039171268585</v>
       </c>
       <c r="F14">
-        <v>1.088805602975881</v>
+        <v>0.8501216785210346</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3976414948729019</v>
+        <v>0.08427899352574286</v>
       </c>
       <c r="J14">
-        <v>0.2009572660270891</v>
+        <v>0.2913194787671927</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.329048705895275</v>
+        <v>1.541606358906137</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.96570396486868</v>
+        <v>5.681907699966473</v>
       </c>
       <c r="C15">
-        <v>0.5347881002750796</v>
+        <v>1.633971396239986</v>
       </c>
       <c r="D15">
-        <v>0.2678221611054568</v>
+        <v>0.3599700113509954</v>
       </c>
       <c r="E15">
-        <v>0.2000199490965286</v>
+        <v>0.2786786333292923</v>
       </c>
       <c r="F15">
-        <v>1.088590796051164</v>
+        <v>0.8429479695239905</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3986977073523406</v>
+        <v>0.08496267031305038</v>
       </c>
       <c r="J15">
-        <v>0.2003154957382947</v>
+        <v>0.2882229411028874</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.330329761496529</v>
+        <v>1.529765982640555</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.853966297756358</v>
+        <v>5.321095068359512</v>
       </c>
       <c r="C16">
-        <v>0.5027712521620629</v>
+        <v>1.530948321457174</v>
       </c>
       <c r="D16">
-        <v>0.2623358037374146</v>
+        <v>0.3387868895098478</v>
       </c>
       <c r="E16">
-        <v>0.1961868000946083</v>
+        <v>0.2620254526786496</v>
       </c>
       <c r="F16">
-        <v>1.087625926162858</v>
+        <v>0.8028194672521636</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4048846520719387</v>
+        <v>0.08934381003861702</v>
       </c>
       <c r="J16">
-        <v>0.1966714515952503</v>
+        <v>0.27063996163713</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.338345383004167</v>
+        <v>1.464473951641679</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.785349379317609</v>
+        <v>5.100315620592255</v>
       </c>
       <c r="C17">
-        <v>0.4831037285040907</v>
+        <v>1.467903287307593</v>
       </c>
       <c r="D17">
-        <v>0.2589874889381605</v>
+        <v>0.3258638992996197</v>
       </c>
       <c r="E17">
-        <v>0.1938573244432575</v>
+        <v>0.2519025919507598</v>
       </c>
       <c r="F17">
-        <v>1.08727107552923</v>
+        <v>0.7790390106118537</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4087996238564724</v>
+        <v>0.09242888319733211</v>
       </c>
       <c r="J17">
-        <v>0.1944659801295643</v>
+        <v>0.2599903956611911</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.3438631787308</v>
+        <v>1.426604839331532</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.745857971652526</v>
+        <v>4.973516376354496</v>
       </c>
       <c r="C18">
-        <v>0.4717820651450779</v>
+        <v>1.431692776005377</v>
       </c>
       <c r="D18">
-        <v>0.2570680568401826</v>
+        <v>0.318455791681842</v>
       </c>
       <c r="E18">
-        <v>0.1925255821061143</v>
+        <v>0.2461124825512826</v>
       </c>
       <c r="F18">
-        <v>1.08715394419643</v>
+        <v>0.7656539900669515</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4110952086980362</v>
+        <v>0.09434322284216812</v>
       </c>
       <c r="J18">
-        <v>0.1932084785111954</v>
+        <v>0.2539125011248586</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.347257017635542</v>
+        <v>1.405588534802234</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.732482677738119</v>
+        <v>4.930614539959151</v>
       </c>
       <c r="C19">
-        <v>0.4679471462199558</v>
+        <v>1.419440773924407</v>
       </c>
       <c r="D19">
-        <v>0.2564192782829195</v>
+        <v>0.3159516492103478</v>
       </c>
       <c r="E19">
-        <v>0.1920760711396881</v>
+        <v>0.2441574128752251</v>
       </c>
       <c r="F19">
-        <v>1.087129208231175</v>
+        <v>0.7611709948399294</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4118799657276639</v>
+        <v>0.09501484465467414</v>
       </c>
       <c r="J19">
-        <v>0.192784603129013</v>
+        <v>0.2518625140378532</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.348443874343275</v>
+        <v>1.39860065715547</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.79265634837509</v>
+        <v>5.123798121468099</v>
       </c>
       <c r="C20">
-        <v>0.4851983501435484</v>
+        <v>1.474609092528169</v>
       </c>
       <c r="D20">
-        <v>0.2593432581891761</v>
+        <v>0.3272369645750501</v>
       </c>
       <c r="E20">
-        <v>0.1941044619716052</v>
+        <v>0.2529768014392531</v>
       </c>
       <c r="F20">
-        <v>1.087299845560025</v>
+        <v>0.7815398446449677</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4083783331028048</v>
+        <v>0.0920858584101012</v>
       </c>
       <c r="J20">
-        <v>0.1946996148461864</v>
+        <v>0.2611190848932949</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.343253003588728</v>
+        <v>1.430556054924637</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.99453033546996</v>
+        <v>5.77525580537764</v>
       </c>
       <c r="C21">
-        <v>0.5430459403461896</v>
+        <v>1.660623409161019</v>
       </c>
       <c r="D21">
-        <v>0.2692439737597141</v>
+        <v>0.365462793781802</v>
       </c>
       <c r="E21">
-        <v>0.201016396171255</v>
+        <v>0.2830086992676186</v>
       </c>
       <c r="F21">
-        <v>1.08891332123757</v>
+        <v>0.8535795773862276</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3971373904914532</v>
+        <v>0.08395957781760899</v>
       </c>
       <c r="J21">
-        <v>0.2012656084578737</v>
+        <v>0.2928073281730974</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.328446353231413</v>
+        <v>1.547330867208217</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.126229946432659</v>
+        <v>6.203155067049465</v>
       </c>
       <c r="C22">
-        <v>0.580764249202673</v>
+        <v>1.782785706292429</v>
       </c>
       <c r="D22">
-        <v>0.2757710730730878</v>
+        <v>0.3907034240616269</v>
       </c>
       <c r="E22">
-        <v>0.2056057156967128</v>
+        <v>0.3029677447398527</v>
       </c>
       <c r="F22">
-        <v>1.090745489015333</v>
+        <v>0.9035926394906113</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3901831775703677</v>
+        <v>0.0800287990368318</v>
       </c>
       <c r="J22">
-        <v>0.205655258396277</v>
+        <v>0.3140035591323453</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.320740843004842</v>
+        <v>1.631297025389614</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.055961819632387</v>
+        <v>5.974558090337098</v>
       </c>
       <c r="C23">
-        <v>0.5606415869202124</v>
+        <v>1.717524433018923</v>
       </c>
       <c r="D23">
-        <v>0.2722823167964208</v>
+        <v>0.3772065719135185</v>
       </c>
       <c r="E23">
-        <v>0.2031497362579699</v>
+        <v>0.2922826605584561</v>
       </c>
       <c r="F23">
-        <v>1.089696314427471</v>
+        <v>0.8766151042181036</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3938587522606678</v>
+        <v>0.08199359865703926</v>
       </c>
       <c r="J23">
-        <v>0.2033034070149426</v>
+        <v>0.3026430102947444</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.324672490841067</v>
+        <v>1.585740492892427</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.789353000266146</v>
+        <v>5.113181283529514</v>
       </c>
       <c r="C24">
-        <v>0.4842514169519632</v>
+        <v>1.471577290663049</v>
       </c>
       <c r="D24">
-        <v>0.2591823975887166</v>
+        <v>0.3266161352151755</v>
       </c>
       <c r="E24">
-        <v>0.1939927077186709</v>
+        <v>0.2524910594234484</v>
       </c>
       <c r="F24">
-        <v>1.087286568044988</v>
+        <v>0.7804083281083507</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4085686590790054</v>
+        <v>0.09224050314781884</v>
       </c>
       <c r="J24">
-        <v>0.1945939560335148</v>
+        <v>0.2606086659978928</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.343528173659621</v>
+        <v>1.42876736720757</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.500833966780817</v>
+        <v>4.190980405628466</v>
       </c>
       <c r="C25">
-        <v>0.4014944072816888</v>
+        <v>1.208181292222946</v>
       </c>
       <c r="D25">
-        <v>0.2452983013398011</v>
+        <v>0.2729785665105737</v>
       </c>
       <c r="E25">
-        <v>0.1844255579438823</v>
+        <v>0.2107825973429343</v>
       </c>
       <c r="F25">
-        <v>1.088010284904719</v>
+        <v>0.6876734536374727</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4261087158098515</v>
+        <v>0.1085759480059654</v>
       </c>
       <c r="J25">
-        <v>0.1856208368358523</v>
+        <v>0.2170512605952268</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.372277102683881</v>
+        <v>1.28828835694938</v>
       </c>
     </row>
   </sheetData>
